--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1184610.365885876</v>
+        <v>-1190472.685921056</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13194119.28651611</v>
+        <v>13192939.32773527</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>234.8856142754581</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>98.952345960374</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -722,7 +722,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104615104</v>
+        <v>13.54727464764518</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>88.82334248802078</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>66.03149870010103</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>162.7004823809712</v>
+        <v>158.339030411875</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>126.7182056565679</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -981,19 +981,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104615104</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914573</v>
+        <v>135.3523815274319</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -1187,19 +1187,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>211.7281842840566</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>20.89093032358781</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>76.72518626584687</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>12.94606197415879</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
@@ -1430,13 +1430,13 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>57.21080750339536</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>42.91313468929143</v>
       </c>
     </row>
     <row r="12">
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
         <v>82.84545313338901</v>
@@ -1579,22 +1579,22 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>168.5371666022546</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>88.87449238176868</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>186.9549822871158</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>8.501682495709607</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1670,10 +1670,10 @@
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>18.62876385476209</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
         <v>82.92491162465757</v>
@@ -1783,7 +1783,7 @@
         <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>118.7252766813158</v>
       </c>
     </row>
     <row r="17">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277494</v>
       </c>
       <c r="T20" t="n">
         <v>90.90562710059311</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093885</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126118</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838891</v>
+        <v>24.17382596574967</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828903</v>
+        <v>52.06849973564979</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434673</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970372</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308066</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431736</v>
+        <v>70.57601873167812</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459977</v>
+        <v>55.72314698196053</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643949</v>
+        <v>41.29686219380025</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193186</v>
+        <v>41.22330424667936</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908587</v>
+        <v>42.97275566644663</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147801</v>
+        <v>53.79159358883877</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805005</v>
+        <v>41.14384575541081</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922198</v>
+        <v>18.98356133658274</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736779</v>
+        <v>9.882059701038656</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920521</v>
+        <v>88.00800320656597</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988129</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1072.224520342611</v>
+        <v>705.809018211927</v>
       </c>
       <c r="C2" t="n">
-        <v>679.0490188455419</v>
+        <v>705.809018211927</v>
       </c>
       <c r="D2" t="n">
-        <v>293.6078900622097</v>
+        <v>705.809018211927</v>
       </c>
       <c r="E2" t="n">
-        <v>293.6078900622097</v>
+        <v>705.809018211927</v>
       </c>
       <c r="F2" t="n">
-        <v>280.7538556325915</v>
+        <v>288.9145797419047</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475497</v>
+        <v>279.792228270312</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M2" t="n">
-        <v>1201.71031657295</v>
+        <v>1407.408573112016</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737749</v>
+        <v>1819.409608251518</v>
       </c>
       <c r="V2" t="n">
-        <v>1832.676160441267</v>
+        <v>1477.302798955036</v>
       </c>
       <c r="W2" t="n">
-        <v>1461.677125409555</v>
+        <v>1106.303763923324</v>
       </c>
       <c r="X2" t="n">
-        <v>1072.224520342611</v>
+        <v>1106.303763923324</v>
       </c>
       <c r="Y2" t="n">
-        <v>1072.224520342611</v>
+        <v>1106.303763923324</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021438</v>
+        <v>766.2559293026725</v>
       </c>
       <c r="C3" t="n">
-        <v>505.159187462236</v>
+        <v>615.6016988627647</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837163</v>
+        <v>485.512731484245</v>
       </c>
       <c r="E3" t="n">
-        <v>238.623729194604</v>
+        <v>349.0662405951327</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777358</v>
+        <v>224.6344344782646</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777358</v>
+        <v>104.574616550129</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475497</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144823</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M3" t="n">
-        <v>694.8694266245751</v>
+        <v>1471.526139546293</v>
       </c>
       <c r="N3" t="n">
-        <v>1233.128211634668</v>
+        <v>1985.128818155981</v>
       </c>
       <c r="O3" t="n">
-        <v>1749.648494225649</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1516.790804184828</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1286.673558318115</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675978</v>
+        <v>1097.366480668127</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431051</v>
+        <v>918.0522637436338</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1273.335947196196</v>
+        <v>456.8037834116176</v>
       </c>
       <c r="C4" t="n">
-        <v>1273.335947196196</v>
+        <v>456.8037834116176</v>
       </c>
       <c r="D4" t="n">
-        <v>1273.335947196196</v>
+        <v>367.0832354439199</v>
       </c>
       <c r="E4" t="n">
-        <v>1273.335947196196</v>
+        <v>367.0832354439199</v>
       </c>
       <c r="F4" t="n">
-        <v>1273.335947196196</v>
+        <v>209.7573006568928</v>
       </c>
       <c r="G4" t="n">
-        <v>1273.335947196196</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196196</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196196</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196196</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306138</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179938</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518202</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549411</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591119</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367698</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737749</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737749</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>2174.782969737749</v>
+        <v>740.13418548044</v>
       </c>
       <c r="T4" t="n">
-        <v>2108.084486202293</v>
+        <v>740.13418548044</v>
       </c>
       <c r="U4" t="n">
-        <v>1822.645694444194</v>
+        <v>740.13418548044</v>
       </c>
       <c r="V4" t="n">
-        <v>1556.666349265019</v>
+        <v>740.13418548044</v>
       </c>
       <c r="W4" t="n">
-        <v>1273.335947196196</v>
+        <v>456.8037834116176</v>
       </c>
       <c r="X4" t="n">
-        <v>1273.335947196196</v>
+        <v>456.8037834116176</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.335947196196</v>
+        <v>456.8037834116176</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>853.4966989627537</v>
+        <v>63.47963265754934</v>
       </c>
       <c r="C5" t="n">
-        <v>853.4966989627537</v>
+        <v>63.47963265754934</v>
       </c>
       <c r="D5" t="n">
-        <v>468.0555701794214</v>
+        <v>63.47963265754934</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596593</v>
+        <v>63.47963265754934</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634775</v>
+        <v>50.62559822793116</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310449</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1085.386573341138</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.71031657295</v>
+        <v>1726.974845685397</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>1726.974845685397</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737749</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737749</v>
+        <v>1647.155266602908</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737749</v>
+        <v>1391.402537037507</v>
       </c>
       <c r="V5" t="n">
-        <v>2010.439048140808</v>
+        <v>1231.464122480058</v>
       </c>
       <c r="W5" t="n">
-        <v>1639.440013109096</v>
+        <v>860.4650874483451</v>
       </c>
       <c r="X5" t="n">
-        <v>1249.987408042153</v>
+        <v>860.4650874483451</v>
       </c>
       <c r="Y5" t="n">
-        <v>853.4966989627537</v>
+        <v>463.9743783689462</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021438</v>
+        <v>579.9909328903889</v>
       </c>
       <c r="C6" t="n">
-        <v>505.159187462236</v>
+        <v>429.3367024504811</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837163</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="E6" t="n">
-        <v>238.623729194604</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777358</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475497</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475497</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591877</v>
+        <v>921.5731989359438</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591877</v>
+        <v>1435.175877545631</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182858</v>
+        <v>1435.175877545631</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262029</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492403</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.72766086347</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.610414996757</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675978</v>
+        <v>887.3033373467683</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431051</v>
+        <v>707.9891204222756</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475497</v>
+        <v>522.900289928632</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475497</v>
+        <v>352.6951719946211</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U7" t="n">
-        <v>97.06776516156884</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="V7" t="n">
-        <v>43.49565939475497</v>
+        <v>806.2306919974544</v>
       </c>
       <c r="W7" t="n">
-        <v>43.49565939475497</v>
+        <v>522.900289928632</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475497</v>
+        <v>522.900289928632</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475497</v>
+        <v>522.900289928632</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1723.774581050991</v>
+        <v>786.5479079333334</v>
       </c>
       <c r="C8" t="n">
-        <v>1723.774581050991</v>
+        <v>393.3724064362639</v>
       </c>
       <c r="D8" t="n">
-        <v>1338.333452267659</v>
+        <v>393.3724064362639</v>
       </c>
       <c r="E8" t="n">
-        <v>935.7499273842031</v>
+        <v>393.3724064362639</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>380.5183720066457</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2030.305891693271</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>1723.774581050991</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V8" t="n">
-        <v>1723.774581050991</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W8" t="n">
-        <v>1723.774581050991</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="X8" t="n">
-        <v>1723.774581050991</v>
+        <v>1583.533362724129</v>
       </c>
       <c r="Y8" t="n">
-        <v>1723.774581050991</v>
+        <v>1187.04265364473</v>
       </c>
     </row>
     <row r="9">
@@ -4893,7 +4893,7 @@
         <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>448.7003252469034</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="C10" t="n">
-        <v>448.7003252469034</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="D10" t="n">
-        <v>293.0672121494181</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="E10" t="n">
-        <v>215.5670240020981</v>
+        <v>385.9697890660532</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>228.6438542790261</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>60.38980037847168</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>682.7806474639203</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W10" t="n">
-        <v>682.7806474639203</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="X10" t="n">
-        <v>448.7003252469034</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="Y10" t="n">
-        <v>448.7003252469034</v>
+        <v>541.5286012068507</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1719.577864530541</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.198638179666</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D11" t="n">
         <v>1398.198638179666</v>
@@ -5078,13 +5078,13 @@
         <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>2048.276335095744</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048.276335095744</v>
+        <v>2361.921188732882</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.3917504485927</v>
+        <v>472.9238301596411</v>
       </c>
       <c r="C13" t="n">
-        <v>376.3917504485927</v>
+        <v>472.9238301596411</v>
       </c>
       <c r="D13" t="n">
-        <v>376.3917504485927</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="E13" t="n">
-        <v>292.6292134539891</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0995538131559</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
         <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027736</v>
@@ -5227,22 +5227,22 @@
         <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245441</v>
+        <v>1143.368556697521</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915624</v>
+        <v>949.1854866645396</v>
       </c>
       <c r="W13" t="n">
-        <v>652.0875410645232</v>
+        <v>737.6513597419111</v>
       </c>
       <c r="X13" t="n">
-        <v>489.8034939937001</v>
+        <v>737.6513597419111</v>
       </c>
       <c r="Y13" t="n">
-        <v>489.8034939937001</v>
+        <v>586.3355737047484</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1722.982659195497</v>
+        <v>1824.738043120708</v>
       </c>
       <c r="C14" t="n">
-        <v>1401.603432844621</v>
+        <v>1503.358816769832</v>
       </c>
       <c r="D14" t="n">
-        <v>1087.958579207483</v>
+        <v>1189.713963132694</v>
       </c>
       <c r="E14" t="n">
-        <v>757.1713294702213</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>412.0731661463934</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G14" t="n">
-        <v>70.70668578058988</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>70.70668578058988</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579423</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2675.578323579423</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="W14" t="n">
-        <v>2376.375563693904</v>
+        <v>2471.09284360666</v>
       </c>
       <c r="X14" t="n">
-        <v>2376.375563693904</v>
+        <v>2153.436513685911</v>
       </c>
       <c r="Y14" t="n">
-        <v>2051.6811297607</v>
+        <v>2153.436513685911</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>430.3683121728535</v>
+        <v>655.0952099420613</v>
       </c>
       <c r="C16" t="n">
-        <v>430.3683121728535</v>
+        <v>556.6863671542445</v>
       </c>
       <c r="D16" t="n">
-        <v>411.5513789862251</v>
+        <v>472.8495292029532</v>
       </c>
       <c r="E16" t="n">
-        <v>327.7888419916214</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F16" t="n">
-        <v>242.2591823507883</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964277</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,13 +5440,13 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="U16" t="n">
-        <v>1149.68534223645</v>
+        <v>1099.965602310116</v>
       </c>
       <c r="V16" t="n">
-        <v>955.5022722034678</v>
+        <v>1099.965602310116</v>
       </c>
       <c r="W16" t="n">
-        <v>743.9681452808393</v>
+        <v>888.4314753874876</v>
       </c>
       <c r="X16" t="n">
-        <v>581.6840982100163</v>
+        <v>888.4314753874876</v>
       </c>
       <c r="Y16" t="n">
-        <v>430.3683121728535</v>
+        <v>768.5069534871686</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975459</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099323</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5601,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5680,13 +5680,13 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5780,10 +5780,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5838,10 +5838,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5911,25 +5911,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>435.0968109750523</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5972,19 +5972,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411548</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6075,16 +6075,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6148,22 +6148,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6230,22 +6230,22 @@
         <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1645.563044338376</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517129</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878069</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746021</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232844</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192013</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904113</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="29">
@@ -6467,19 +6467,19 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>108.0644045966515</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>591.6304904949648</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1219.402140121646</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1875.180111332205</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
-        <v>2391.700393923186</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878066</v>
@@ -6613,22 +6613,22 @@
         <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993068</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.38072581081</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835482</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J32" t="n">
-        <v>262.3706492640392</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>621.3530052915011</v>
+        <v>614.2474104019154</v>
       </c>
       <c r="L32" t="n">
-        <v>1219.9463897371</v>
+        <v>1219.219822695427</v>
       </c>
       <c r="M32" t="n">
-        <v>1871.220382508751</v>
+        <v>1765.220722740008</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146213</v>
+        <v>2293.03200637747</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765611</v>
+        <v>2733.071607269799</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897133</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117252</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117252</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996513</v>
+        <v>365.6713676929704</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918668</v>
+        <v>309.385360640485</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823746</v>
+        <v>267.6713584245252</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123131</v>
+        <v>226.0316571652531</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546506</v>
+        <v>182.6248332597514</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407224</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431919</v>
+        <v>86.73045008374176</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067526</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076225</v>
+        <v>425.1699371610697</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729568</v>
+        <v>611.4615154993337</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041659</v>
+        <v>794.6511495305429</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145874</v>
+        <v>1069.008037147234</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1264.910118928619</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873653</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250165</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439552</v>
+        <v>835.7257283273661</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000942</v>
+        <v>666.3144371400691</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124418</v>
+        <v>546.1532258045776</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584497</v>
+        <v>436.9602755027463</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6947,7 +6947,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,10 +6956,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,22 +7096,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>969.324157721467</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7330,19 +7330,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O40" t="n">
         <v>974.9038003296507</v>
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7418,10 +7418,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,7 +7430,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
         <v>3105.956385205777</v>
@@ -7439,13 +7439,13 @@
         <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229973</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222416</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P43" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7664,7 +7664,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7722,16 +7722,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462911</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411552</v>
+        <v>67.69877031229973</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222416</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655131</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918799</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>312.6161996011376</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920139</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>305.2720051970412</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837491</v>
+        <v>611.1777065035417</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886038</v>
+        <v>604.1626973083964</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>183.6305080413522</v>
       </c>
       <c r="P3" t="n">
-        <v>279.7797122508392</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N5" t="n">
-        <v>266.6172218749683</v>
+        <v>325.801824332282</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,16 +8301,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>561.0555281269434</v>
+        <v>169.9272434827116</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083964</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8465,10 +8465,10 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>540.4718524873235</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>302.3186727388648</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8541,10 +8541,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2595653118437</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600802</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8775,19 +8775,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>333.2595653118431</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9486,13 +9486,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9723,19 +9723,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075975</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,10 +10188,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>124.6469814435366</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10200,16 +10200,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,7 +11382,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>257.2689591181464</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>278.5343549045815</v>
       </c>
     </row>
     <row r="12">
@@ -23419,16 +23419,16 @@
         <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>42.96892484353148</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>120.5442932716335</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>140.5243949527731</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>57.37375084801827</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>64.36970571701636</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>31.07735149547536</v>
       </c>
     </row>
     <row r="17">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.181721801112872e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1157832.125118003</v>
+        <v>1157230.577504243</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1157832.125118003</v>
+        <v>1157230.577504243</v>
       </c>
     </row>
     <row r="4">
@@ -26317,7 +26317,7 @@
         <v>126232.5246653498</v>
       </c>
       <c r="D2" t="n">
-        <v>126232.5246653498</v>
+        <v>126232.5246653497</v>
       </c>
       <c r="E2" t="n">
         <v>111551.3163970803</v>
@@ -26344,16 +26344,16 @@
         <v>126232.5246653498</v>
       </c>
       <c r="M2" t="n">
-        <v>126232.5246653497</v>
+        <v>126232.5246653496</v>
       </c>
       <c r="N2" t="n">
         <v>126232.5246653496</v>
       </c>
       <c r="O2" t="n">
-        <v>126232.5246653496</v>
+        <v>126232.5246653495</v>
       </c>
       <c r="P2" t="n">
-        <v>126232.5246653499</v>
+        <v>126232.5246653495</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106219</v>
+        <v>22558.42953401372</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728551</v>
+        <v>62456.24177539691</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277119</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166298</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166298</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
@@ -26439,25 +26439,25 @@
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640164</v>
+        <v>148402.4904640163</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="N4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
+        <v>147651.9979996333</v>
+      </c>
+      <c r="P4" t="n">
         <v>147651.9979996332</v>
-      </c>
-      <c r="P4" t="n">
-        <v>147651.9979996333</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26491,22 +26491,22 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-311602.2311206866</v>
+        <v>-307852.332920152</v>
       </c>
       <c r="C6" t="n">
-        <v>-129397.2828288307</v>
+        <v>-133993.6758860971</v>
       </c>
       <c r="D6" t="n">
-        <v>-135413.084486604</v>
+        <v>-143149.3737099958</v>
       </c>
       <c r="E6" t="n">
-        <v>-153650.3462848557</v>
+        <v>-153860.0778315453</v>
       </c>
       <c r="F6" t="n">
-        <v>-41527.78481081122</v>
+        <v>-41737.51635750077</v>
       </c>
       <c r="G6" t="n">
         <v>-127014.5681864852</v>
       </c>
       <c r="H6" t="n">
-        <v>-79589.24264980324</v>
+        <v>-79589.24264980327</v>
       </c>
       <c r="I6" t="n">
-        <v>-79589.24264980326</v>
+        <v>-79589.24264980323</v>
       </c>
       <c r="J6" t="n">
-        <v>-292631.1602470886</v>
+        <v>-286114.8750925153</v>
       </c>
       <c r="K6" t="n">
         <v>-85829.01105258605</v>
       </c>
       <c r="L6" t="n">
-        <v>-141011.5999872072</v>
+        <v>-145060.4371976795</v>
       </c>
       <c r="M6" t="n">
-        <v>-121790.0721094261</v>
+        <v>-122841.7671206145</v>
       </c>
       <c r="N6" t="n">
-        <v>-79589.24264980321</v>
+        <v>-79589.24264980329</v>
       </c>
       <c r="O6" t="n">
-        <v>-107356.9366925745</v>
+        <v>-107356.9366925746</v>
       </c>
       <c r="P6" t="n">
-        <v>-79589.24264980304</v>
+        <v>-79589.24264980333</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,16 +26811,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095204</v>
+        <v>844.4391950293131</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660689</v>
+        <v>78.07030221924613</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155135</v>
+        <v>17.58004954287424</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506526</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.362224997164</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407265</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506526</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>174.1455136814187</v>
-      </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>221.8898739688002</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925403</v>
+        <v>73.86716758775989</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>65.25343947848961</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27585,16 +27585,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>167.3303626133472</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>175.9852588225456</v>
+        <v>180.3467107916418</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>23.56016543998386</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270316</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>127.9671701999521</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>41.46701798569075</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>364.6671486926859</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>77.27803775354263</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>140.9777035539622</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28068,13 +28068,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28752,16 +28752,16 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N19" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28983,10 +28983,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
-        <v>128.2979821082779</v>
+        <v>5.63600263452912</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29220,13 +29220,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.65052755599532</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29539,7 +29539,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29548,13 +29548,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901266</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,49 +29746,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>48.65992738833282</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>43.49509683159641</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>94.97643844045362</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455030979</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30177,16 +30177,16 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.636002634528316</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30402,22 +30402,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>5.636002634529035</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668856</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30654,16 +30654,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668857</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30888,10 +30888,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>5.636002634527898</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>162.8911480034104</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>155.7081677729448</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>90.94294915246337</v>
       </c>
       <c r="P3" t="n">
-        <v>192.6963474315246</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="N5" t="n">
-        <v>117.4987305371842</v>
+        <v>176.6833329944979</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,16 +35021,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776315</v>
+        <v>77.54012143339968</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>390.9080150632272</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>152.0172254979396</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35261,10 +35261,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35495,19 +35495,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>247.8874524576764</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36048,16 +36048,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36206,13 +36206,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
-        <v>294.0834769302979</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36534,7 +36534,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101042</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>273.3632145670545</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187086</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>35.05004611020328</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36920,16 +36920,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>194.7708091144218</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>406.103537263376</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>611.0832447409211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792979</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>177.6380961272636</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.5654145947301</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.128169309789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>197.880890688268</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828626</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O35" t="n">
         <v>444.4844453457863</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37473,16 +37473,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644680799</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.00106726098205</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,7 +37713,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716079</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37786,7 +37786,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.636002634529489</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37950,16 +37950,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,7 +38102,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.636002634529496</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38184,10 +38184,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094867</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
